--- a/experiment_results/SBFL_ONLY/Summary/ZipMe/multiple_bugs_123bug.xlsx
+++ b/experiment_results/SBFL_ONLY/Summary/ZipMe/multiple_bugs_123bug.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="10">
   <si>
     <t>EVALUATION_METRIC</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Proportion of cases that found bugs</t>
+  </si>
+  <si>
+    <t>Num of cases that found bugs (Hit@x)</t>
   </si>
   <si>
     <t>Best rank</t>
@@ -401,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -442,7 +445,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -450,7 +453,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2911111111111113</v>
+        <v>0.2911111111111111</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -458,7 +461,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3666666666666669</v>
+        <v>0.3666666666666666</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -508,31 +511,74 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>30.72666666666667</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>603.5599999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>1.324261691355464</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
+      <c r="C19">
+        <v>1.324261691355465</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
         <v>25.89312652518337</v>
       </c>
     </row>
@@ -543,7 +589,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -576,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1777777777777777</v>
+        <v>0.1777777777777778</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -584,7 +630,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.354444444444445</v>
+        <v>0.3544444444444445</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -592,7 +638,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.414444444444445</v>
+        <v>0.4144444444444444</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -600,7 +646,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.437777777777778</v>
+        <v>0.4377777777777778</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -650,32 +696,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>28.44</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>603.0133333333333</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
         <v>1.226108323679374</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15">
-        <v>25.86952516983672</v>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>25.86952516983671</v>
       </c>
     </row>
   </sheetData>
@@ -685,7 +774,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -718,7 +807,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1777777777777777</v>
+        <v>0.1777777777777778</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -726,7 +815,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.354444444444445</v>
+        <v>0.3544444444444445</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -734,7 +823,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.414444444444445</v>
+        <v>0.4144444444444444</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -742,7 +831,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.437777777777778</v>
+        <v>0.4377777777777778</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -792,32 +881,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>28.93333333333333</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>470.8933333333333</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>1.247237974781774</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>20.18662752891824</v>
+      <c r="C19">
+        <v>1.247237974781775</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>20.18662752891823</v>
       </c>
     </row>
   </sheetData>
@@ -827,7 +959,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -860,7 +992,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1777777777777777</v>
+        <v>0.1777777777777778</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -868,7 +1000,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.354444444444445</v>
+        <v>0.3544444444444445</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -876,7 +1008,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.414444444444445</v>
+        <v>0.4144444444444444</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -884,7 +1016,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.437777777777778</v>
+        <v>0.4377777777777778</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -934,32 +1066,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>90.53333333333333</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>705.6066666666667</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>3.901902742551441</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>30.2663058578076</v>
+      <c r="C19">
+        <v>3.901902742551437</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>30.26630585780757</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +1144,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1002,7 +1177,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1777777777777777</v>
+        <v>0.1777777777777778</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1010,7 +1185,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.354444444444445</v>
+        <v>0.3544444444444445</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1018,7 +1193,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.414444444444445</v>
+        <v>0.4144444444444444</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1026,7 +1201,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.437777777777778</v>
+        <v>0.4377777777777778</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1076,32 +1251,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>98.12</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>713.1933333333334</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>4.229762149062532</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>30.59416526431868</v>
+      <c r="C19">
+        <v>4.229762149062531</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>30.59416526431866</v>
       </c>
     </row>
   </sheetData>
@@ -1111,7 +1329,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1144,7 +1362,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1777777777777777</v>
+        <v>0.1777777777777778</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1152,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.354444444444445</v>
+        <v>0.3544444444444445</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1160,7 +1378,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4277777777777783</v>
+        <v>0.4277777777777778</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1218,32 +1436,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>27.47333333333333</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>471.4466666666667</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
         <v>1.184281335932824</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15">
-        <v>20.20984377859554</v>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>20.20984377859553</v>
       </c>
     </row>
   </sheetData>
@@ -1253,7 +1514,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1278,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.08888888888888889</v>
+        <v>0.08888888888888888</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1294,7 +1555,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2933333333333335</v>
+        <v>0.2933333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1302,7 +1563,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3433333333333335</v>
+        <v>0.3433333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1310,7 +1571,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3688888888888891</v>
+        <v>0.3688888888888889</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1360,32 +1621,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>32.56</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>610.2533333333333</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
         <v>1.401422018183366</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15">
-        <v>26.1790613596493</v>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>26.17906135964928</v>
       </c>
     </row>
   </sheetData>
@@ -1395,7 +1699,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1502,32 +1806,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>72.86666666666666</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>648.5533333333333</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>3.133277700871112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>27.82366138991259</v>
+      <c r="C19">
+        <v>3.133277700871109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>27.8236613899126</v>
       </c>
     </row>
   </sheetData>
@@ -1537,7 +1884,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1570,7 +1917,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1766666666666666</v>
+        <v>0.1766666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1578,7 +1925,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3444444444444451</v>
+        <v>0.3438888888888889</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1586,7 +1933,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4100000000000005</v>
+        <v>0.4088888888888889</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1594,7 +1941,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.435555555555556</v>
+        <v>0.4344444444444446</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1644,32 +1991,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>367.3266666666667</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>1206.82</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>15.83266198623065</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>51.80979415835304</v>
+      <c r="C19">
+        <v>15.83266198623066</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>51.80979415835299</v>
       </c>
     </row>
   </sheetData>
@@ -1679,7 +2069,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1712,7 +2102,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1777777777777777</v>
+        <v>0.1777777777777778</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1720,7 +2110,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.354444444444445</v>
+        <v>0.3544444444444445</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1728,7 +2118,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.414444444444445</v>
+        <v>0.4144444444444444</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1736,7 +2126,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.437777777777778</v>
+        <v>0.4377777777777778</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1786,32 +2176,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>28.44</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>603.0133333333333</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
         <v>1.226108323679374</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15">
-        <v>25.86952516983672</v>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>25.86952516983671</v>
       </c>
     </row>
   </sheetData>
@@ -1821,7 +2254,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1854,7 +2287,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1777777777777777</v>
+        <v>0.1777777777777778</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1862,7 +2295,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.354444444444445</v>
+        <v>0.3544444444444445</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1870,7 +2303,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.414444444444445</v>
+        <v>0.4144444444444444</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1878,7 +2311,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.437777777777778</v>
+        <v>0.4377777777777778</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1928,32 +2361,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>28.44</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>603.0133333333333</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
         <v>1.226108323679374</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15">
-        <v>25.86952516983672</v>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>25.86952516983671</v>
       </c>
     </row>
   </sheetData>
@@ -1963,7 +2439,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1996,7 +2472,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1777777777777777</v>
+        <v>0.1777777777777778</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2004,7 +2480,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.354444444444445</v>
+        <v>0.3544444444444445</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2012,7 +2488,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4277777777777783</v>
+        <v>0.4277777777777778</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2070,32 +2546,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>27.33333333333333</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>602.6266666666667</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>1.178243133512711</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>25.85261435891959</v>
+      <c r="C19">
+        <v>1.17824313351271</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>25.85261435891957</v>
       </c>
     </row>
   </sheetData>
@@ -2105,7 +2624,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2138,7 +2657,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1766666666666666</v>
+        <v>0.1766666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2146,7 +2665,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3444444444444451</v>
+        <v>0.3438888888888889</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2154,7 +2673,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4100000000000005</v>
+        <v>0.4088888888888889</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2162,7 +2681,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.435555555555556</v>
+        <v>0.4344444444444446</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2212,32 +2731,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>367.3266666666667</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>1206.82</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>15.83266198623065</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>51.80979415835304</v>
+      <c r="C19">
+        <v>15.83266198623066</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>51.80979415835299</v>
       </c>
     </row>
   </sheetData>
@@ -2247,7 +2809,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2280,7 +2842,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1766666666666666</v>
+        <v>0.1766666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2288,7 +2850,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3444444444444451</v>
+        <v>0.3438888888888889</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2296,7 +2858,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4100000000000005</v>
+        <v>0.4088888888888889</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2304,7 +2866,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.435555555555556</v>
+        <v>0.4344444444444446</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2354,32 +2916,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>367.3266666666667</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>1206.82</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>15.83266198623065</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>51.80979415835304</v>
+      <c r="C19">
+        <v>15.83266198623066</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>51.80979415835299</v>
       </c>
     </row>
   </sheetData>
@@ -2389,7 +2994,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2422,7 +3027,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1766666666666666</v>
+        <v>0.1766666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2430,7 +3035,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3444444444444451</v>
+        <v>0.3438888888888889</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2438,7 +3043,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4100000000000005</v>
+        <v>0.4088888888888889</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2446,7 +3051,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.435555555555556</v>
+        <v>0.4344444444444446</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2496,32 +3101,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>367.3266666666667</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>1206.82</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>15.83266198623065</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>51.80979415835304</v>
+      <c r="C19">
+        <v>15.83266198623066</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>51.80979415835299</v>
       </c>
     </row>
   </sheetData>
@@ -2531,7 +3179,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2564,7 +3212,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1799999999999999</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2572,7 +3220,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3633333333333339</v>
+        <v>0.3627777777777778</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2580,7 +3228,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4377777777777783</v>
+        <v>0.4366666666666666</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2588,7 +3236,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.471111111111111</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2638,32 +3286,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>25.85333333333333</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>601.28</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
         <v>1.114845935901184</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15">
-        <v>25.79465643071257</v>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>25.79465643071256</v>
       </c>
     </row>
   </sheetData>
@@ -2673,7 +3364,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2706,7 +3397,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1777777777777777</v>
+        <v>0.1777777777777778</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2714,7 +3405,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3688888888888895</v>
+        <v>0.3683333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2722,7 +3413,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4511111111111114</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2730,7 +3421,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4866666666666665</v>
+        <v>0.4855555555555556</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2780,31 +3471,74 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>25.39333333333333</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>622.9933333333333</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>1.094975988436856</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
+      <c r="C19">
+        <v>1.094975988436857</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
         <v>26.72187650486691</v>
       </c>
     </row>
@@ -2815,7 +3549,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2848,7 +3582,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1766666666666666</v>
+        <v>0.1766666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2856,7 +3590,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3444444444444451</v>
+        <v>0.3438888888888889</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2864,7 +3598,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4100000000000005</v>
+        <v>0.4088888888888889</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2872,7 +3606,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.435555555555556</v>
+        <v>0.4344444444444446</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2922,32 +3656,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>367.3266666666667</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>1206.82</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>15.83266198623065</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>51.80979415835304</v>
+      <c r="C19">
+        <v>15.83266198623066</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>51.80979415835299</v>
       </c>
     </row>
   </sheetData>
@@ -2957,7 +3734,7 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2990,7 +3767,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1677777777777777</v>
+        <v>0.1677777777777778</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2998,7 +3775,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3488888888888893</v>
+        <v>0.3488888888888889</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3006,7 +3783,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4100000000000005</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3014,7 +3791,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4455555555555555</v>
+        <v>0.4455555555555556</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3064,32 +3841,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>91.64</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>730.8466666666667</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>3.949213111839557</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>31.34827615294017</v>
+      <c r="C19">
+        <v>3.949213111839555</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>31.34827615294016</v>
       </c>
     </row>
   </sheetData>
@@ -3099,7 +3919,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3132,7 +3952,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1777777777777777</v>
+        <v>0.1777777777777778</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3140,7 +3960,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.354444444444445</v>
+        <v>0.3544444444444445</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3148,7 +3968,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.414444444444445</v>
+        <v>0.4144444444444444</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3156,7 +3976,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.437777777777778</v>
+        <v>0.4377777777777778</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3206,32 +4026,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>28.44</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>603.0133333333333</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
         <v>1.226108323679374</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15">
-        <v>25.86952516983672</v>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>25.86952516983671</v>
       </c>
     </row>
   </sheetData>
@@ -3241,7 +4104,7 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3274,7 +4137,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1777777777777777</v>
+        <v>0.1777777777777778</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3282,7 +4145,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.354444444444445</v>
+        <v>0.3544444444444445</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3290,7 +4153,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.414444444444445</v>
+        <v>0.4144444444444444</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3298,7 +4161,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.437777777777778</v>
+        <v>0.4377777777777778</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3348,32 +4211,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>20.85333333333333</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>595.4266666666666</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>0.8982489171682827</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>25.54166576332563</v>
+      <c r="C19">
+        <v>0.8982489171682819</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>25.54166576332562</v>
       </c>
     </row>
   </sheetData>
@@ -3383,7 +4289,7 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3416,7 +4322,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1777777777777777</v>
+        <v>0.1777777777777778</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3424,7 +4330,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3688888888888895</v>
+        <v>0.3683333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3432,7 +4338,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4511111111111114</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3440,7 +4346,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4866666666666665</v>
+        <v>0.4855555555555556</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3490,32 +4396,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>25.39333333333333</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>466.9066666666667</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>1.094975988436856</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>20.01525516898932</v>
+      <c r="C19">
+        <v>1.094975988436857</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>20.01525516898931</v>
       </c>
     </row>
   </sheetData>
@@ -3525,7 +4474,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3566,7 +4515,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2555555555555556</v>
+        <v>0.2555555555555555</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3574,7 +4523,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3055555555555556</v>
+        <v>0.3055555555555555</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3582,7 +4531,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3244444444444445</v>
+        <v>0.3244444444444444</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3632,32 +4581,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>31.63333333333333</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>380.12</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
         <v>1.359467757922745</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15">
-        <v>16.30544568137798</v>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>16.30544568137796</v>
       </c>
     </row>
   </sheetData>
@@ -3667,7 +4659,7 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3700,7 +4692,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1777777777777777</v>
+        <v>0.1777777777777778</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3708,7 +4700,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3555555555555561</v>
+        <v>0.355</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3716,7 +4708,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4377777777777783</v>
+        <v>0.4366666666666666</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3724,7 +4716,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4733333333333331</v>
+        <v>0.4722222222222223</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3774,32 +4766,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>27.10666666666667</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>603.4266666666666</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>1.168484926314159</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>25.886904951316</v>
+      <c r="C19">
+        <v>1.16848492631416</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>25.88690495131599</v>
       </c>
     </row>
   </sheetData>
@@ -3809,7 +4844,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3850,7 +4885,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.211111111111111</v>
+        <v>0.2111111111111111</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3858,7 +4893,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2911111111111113</v>
+        <v>0.2911111111111111</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3866,7 +4901,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3644444444444447</v>
+        <v>0.3644444444444444</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3916,32 +4951,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>30.72666666666667</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>603.5666666666667</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>1.324261691355464</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>25.89341191331122</v>
+      <c r="C19">
+        <v>1.324261691355465</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>25.89341191331123</v>
       </c>
     </row>
   </sheetData>
@@ -3951,7 +5029,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3984,7 +5062,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1777777777777777</v>
+        <v>0.1777777777777778</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3992,7 +5070,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3488888888888893</v>
+        <v>0.3488888888888889</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4000,7 +5078,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4155555555555561</v>
+        <v>0.4155555555555555</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4008,7 +5086,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4455555555555555</v>
+        <v>0.4455555555555556</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4058,32 +5136,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>29.01333333333333</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>604.1533333333333</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
         <v>1.249746381090695</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15">
-        <v>25.91772461275922</v>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>25.91772461275919</v>
       </c>
     </row>
   </sheetData>
@@ -4093,7 +5214,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4200,32 +5321,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>72.86666666666666</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>648.5533333333333</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>3.133277700871112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>27.82366138991259</v>
+      <c r="C19">
+        <v>3.133277700871109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>27.8236613899126</v>
       </c>
     </row>
   </sheetData>
@@ -4235,7 +5399,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4268,7 +5432,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1766666666666666</v>
+        <v>0.1766666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4276,7 +5440,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3444444444444451</v>
+        <v>0.3438888888888889</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4284,7 +5448,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4100000000000005</v>
+        <v>0.4088888888888889</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4292,7 +5456,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.435555555555556</v>
+        <v>0.4344444444444446</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4342,32 +5506,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>367.3266666666667</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>1206.82</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>15.83266198623065</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>51.80979415835304</v>
+      <c r="C19">
+        <v>15.83266198623066</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>51.80979415835299</v>
       </c>
     </row>
   </sheetData>
@@ -4377,7 +5584,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4410,7 +5617,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1766666666666666</v>
+        <v>0.1766666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4418,7 +5625,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3444444444444451</v>
+        <v>0.3438888888888889</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4426,7 +5633,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4100000000000005</v>
+        <v>0.4088888888888889</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4434,7 +5641,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.435555555555556</v>
+        <v>0.4344444444444446</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4484,32 +5691,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>367.3266666666667</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>1206.82</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>15.83266198623065</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>51.80979415835304</v>
+      <c r="C19">
+        <v>15.83266198623066</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>51.80979415835299</v>
       </c>
     </row>
   </sheetData>
@@ -4519,7 +5769,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4544,7 +5794,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.09444444444444446</v>
+        <v>0.09444444444444444</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4560,7 +5810,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3333333333333336</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4568,7 +5818,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.386666666666667</v>
+        <v>0.3866666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4576,7 +5826,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4122222222222225</v>
+        <v>0.4122222222222222</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4626,32 +5876,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>46.27333333333333</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>672.3933333333333</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
         <v>1.985062762864195</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15">
-        <v>28.83873746388937</v>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>28.83873746388933</v>
       </c>
     </row>
   </sheetData>
